--- a/ContingencyTable.xlsx
+++ b/ContingencyTable.xlsx
@@ -8,17 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\__UNOB\8. semestr\AIZ\ProjectsAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3399E-536C-40E0-A278-65B87AEB0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296400AC-2D94-47D6-89AA-917580753322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86D55B26-83DC-44D4-9244-3FBC8CD27361}"/>
   </bookViews>
   <sheets>
     <sheet name="resultFake" sheetId="6" r:id="rId1"/>
+    <sheet name="List1" sheetId="7" r:id="rId2"/>
+    <sheet name="List2" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">resultFake!$I$28:$J$43</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">resultFake!$K$27</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">resultFake!$K$28:$K$43</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">resultFake!#REF!</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">resultFake!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">resultFake!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="30" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="128">
   <si>
     <t>Column1.projectID</t>
   </si>
@@ -365,6 +381,72 @@
   </si>
   <si>
     <t>2027-08-01T08:40:36.610705</t>
+  </si>
+  <si>
+    <t>Popisky řádků</t>
+  </si>
+  <si>
+    <t>Celkový součet</t>
+  </si>
+  <si>
+    <t>NEPRAVDA</t>
+  </si>
+  <si>
+    <t>PRAVDA</t>
+  </si>
+  <si>
+    <t>Popisky sloupců</t>
+  </si>
+  <si>
+    <t>Počet z Column1.validity</t>
+  </si>
+  <si>
+    <t>Nanotechnologie v medicíně Celkem</t>
+  </si>
+  <si>
+    <t>Vodní hospodářství Celkem</t>
+  </si>
+  <si>
+    <t>Biodegradabilní materiály Celkem</t>
+  </si>
+  <si>
+    <t>Recyklovatelné plasty Celkem</t>
+  </si>
+  <si>
+    <t>Chytré město Celkem</t>
+  </si>
+  <si>
+    <t>Solární panely nové generace Celkem</t>
+  </si>
+  <si>
+    <t>Autonomní vozidla Celkem</t>
+  </si>
+  <si>
+    <t>Ekologické baterie Celkem</t>
+  </si>
+  <si>
+    <t>Robotická chirurgie Celkem</t>
+  </si>
+  <si>
+    <t>Geneticky modifikované plodiny Celkem</t>
+  </si>
+  <si>
+    <t>Inteligentní osvětlení Celkem</t>
+  </si>
+  <si>
+    <t>Smart Grid Technology Celkem</t>
+  </si>
+  <si>
+    <t>Geotermální energie Celkem</t>
+  </si>
+  <si>
+    <t>Nukleární reaktor pro budovy Celkem</t>
+  </si>
+  <si>
+    <t>Větrná turbína pro města Celkem</t>
+  </si>
+  <si>
+    <t>Vodíkové palivové články Celkem</t>
   </si>
 </sst>
 </file>
@@ -400,8 +482,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -417,6 +504,5049 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ContingencyTable.xlsx]List1!Kontingenční tabulka1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>Počet</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" baseline="0"/>
+              <a:t> dokončených projektů podle skupiny</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NEPRAVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BioTech</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HealthTech</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Materials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78FB-4441-8060-6593768DD574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRAVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$A$5:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>BioTech</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HealthTech</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Materials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tech</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Uni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$5:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78FB-4441-8060-6593768DD574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1775001504"/>
+        <c:axId val="1775002944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1775001504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775002944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775002944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775001504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>648313</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1050019</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140931</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2AFE68-4D78-4367-91C5-685AD2198643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Martin Chaloupka" refreshedDate="45438.768217245371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{AF6A34B3-948E-496B-9183-6338A4472C1F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="resultFake__2"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Column1.projectID" numFmtId="0">
+      <sharedItems count="16">
+        <s v="43dd2ff1-5c17-42a5-ba36-8b30e2a243bb"/>
+        <s v="22586df2-2cf0-4549-ae27-5df7800a2b0b"/>
+        <s v="d765d9ca-0eb0-4c9b-977b-52b59d18a6a1"/>
+        <s v="868a08ba-1dae-467d-b1a3-24503d5d497d"/>
+        <s v="35d19327-c525-430b-a0e0-69186f682dde"/>
+        <s v="0e630f23-c9a0-40d2-a49f-5a45f928fdbb"/>
+        <s v="9821313c-1e14-495a-a6ce-c3b10d258aa9"/>
+        <s v="754b19b6-e265-419c-a17d-97e46245dfca"/>
+        <s v="c3b9a8ea-335f-4873-8fef-d598881275cb"/>
+        <s v="aa55d7bf-4717-453e-9b96-acdc68d8e6f2"/>
+        <s v="99cf863e-3073-416c-a2c0-0b12b3c56460"/>
+        <s v="7ba310fc-8210-43d5-bb17-1bd1a4b0fadf"/>
+        <s v="767d221c-0c2c-4415-91d1-e2d74c8c630d"/>
+        <s v="9d64d142-fcc9-4f5c-924b-90ae61a6daee"/>
+        <s v="69946f41-1f68-4d97-b86b-4a91c94b911e"/>
+        <s v="dcabb9df-104b-47c3-a4f3-9f514489a427"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.projectName" numFmtId="0">
+      <sharedItems count="16">
+        <s v="Nukleární reaktor pro budovy"/>
+        <s v="Větrná turbína pro města"/>
+        <s v="Inteligentní osvětlení"/>
+        <s v="Ekologické baterie"/>
+        <s v="Vodíkové palivové články"/>
+        <s v="Recyklovatelné plasty"/>
+        <s v="Biodegradabilní materiály"/>
+        <s v="Smart Grid Technology"/>
+        <s v="Geotermální energie"/>
+        <s v="Autonomní vozidla"/>
+        <s v="Robotická chirurgie"/>
+        <s v="Solární panely nové generace"/>
+        <s v="Vodní hospodářství"/>
+        <s v="Geneticky modifikované plodiny"/>
+        <s v="Nanotechnologie v medicíně"/>
+        <s v="Chytré město"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.startDate" numFmtId="0">
+      <sharedItems count="16">
+        <s v="2023-01-01T17:27:12"/>
+        <s v="2023-05-21T08:38:52.038899"/>
+        <s v="2023-11-02T08:38:52.038979"/>
+        <s v="2024-02-10T08:38:52.039022"/>
+        <s v="2024-03-31T08:38:52.039066"/>
+        <s v="2023-12-22T08:38:52.039097"/>
+        <s v="2024-01-21T08:40:36.609988"/>
+        <s v="2024-02-20T08:40:36.610081"/>
+        <s v="2023-07-25T08:40:36.610124"/>
+        <s v="2023-11-22T08:40:36.610155"/>
+        <s v="2024-03-21T08:40:36.610201"/>
+        <s v="2024-04-01T08:40:36.610301"/>
+        <s v="2024-05-01T08:40:36.610401"/>
+        <s v="2024-06-01T08:40:36.610501"/>
+        <s v="2024-07-01T08:40:36.610601"/>
+        <s v="2024-08-01T08:40:36.610701"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.endDate" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1.validity" numFmtId="0">
+      <sharedItems count="2">
+        <b v="0"/>
+        <b v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.projectTypeID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1.projectType" numFmtId="0">
+      <sharedItems count="8">
+        <s v="GAČR"/>
+        <s v="TAČR"/>
+        <s v="EUREKA"/>
+        <s v="H2020"/>
+        <s v="INTERREG"/>
+        <s v="FP7"/>
+        <s v="COST"/>
+        <s v="LIFE"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.milestonesCount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6" count="6">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="6"/>
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.groupID" numFmtId="0">
+      <sharedItems count="8">
+        <s v="2d9dcd22-a4a2-11ed-b9df-0242ac120003"/>
+        <s v="3f7dcd22-a4a2-11ed-b9df-0242ac120004"/>
+        <s v="3e9507a9-e9aa-4fcb-b273-4fcf4ea6e16d"/>
+        <s v="548a647d-145e-4db3-844f-724030c414da"/>
+        <s v="533da1b1-fed8-4a0e-b967-9f6d718f3854"/>
+        <s v="652936f0-cae0-47f2-b6f0-83c10bd0a363"/>
+        <s v="3ba7341a-f190-4aeb-a90f-1d727b46ccdf"/>
+        <s v="024201e2-7246-4eb0-b140-0ba4bfd2a2c2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column1.groupName" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Uni"/>
+        <s v="Tech"/>
+        <s v="Green"/>
+        <s v="Eco"/>
+        <s v="HealthTech"/>
+        <s v="Energy"/>
+        <s v="BioTech"/>
+        <s v="Materials"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="2025-12-31T17:27:12"/>
+    <x v="0"/>
+    <s v="a825d8e1-2e60-4884-afdb-25642db581d8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="2026-05-20T08:38:52.038915"/>
+    <x v="0"/>
+    <s v="a825d8e1-2e60-4884-afdb-25642db581d8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="2025-10-02T08:38:52.038982"/>
+    <x v="1"/>
+    <s v="c009fed2-6c5-4668-bb60-949dd1b6b3ed"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="2026-07-29T08:38:52.039027"/>
+    <x v="1"/>
+    <s v="a7b8b28f-37f4-422f-84bd-2ab9f31a2f50"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="2026-11-06T08:38:52.039069"/>
+    <x v="1"/>
+    <s v="8396657f-934a-472a-b3e2-66535313426d"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="2027-02-14T08:38:52.039099"/>
+    <x v="1"/>
+    <s v="3701b0b3-8f71-4387-ac4e-1659fdd86cf6"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="2026-03-01T08:40:36.610006"/>
+    <x v="1"/>
+    <s v="a825d8e1-2e60-4884-afdb-25642db581d8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="2026-04-20T08:40:36.610086"/>
+    <x v="1"/>
+    <s v="c009fed2-6c5-4668-bb60-949dd1b6b3ed"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="2027-02-14T08:40:36.610127"/>
+    <x v="1"/>
+    <s v="a825d8e1-2e60-4884-afdb-25642db581d8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="2026-07-29T08:40:36.610160"/>
+    <x v="1"/>
+    <s v="c009fed2-6c5-4668-bb60-949dd1b6b3ed"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="2026-01-10T08:40:36.610206"/>
+    <x v="1"/>
+    <s v="a825d8e1-2e60-4884-afdb-25642db581d8"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="2027-04-01T08:40:36.610305"/>
+    <x v="1"/>
+    <s v="478059f2-154c-4d65-9597-63c8fbef294a"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="2026-05-01T08:40:36.610405"/>
+    <x v="1"/>
+    <s v="01ed84df-94be-4f40-b64c-ccc4e11c6fef"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="2028-06-01T08:40:36.610505"/>
+    <x v="1"/>
+    <s v="170af1bb-05bb-4f39-a8bf-6861b68ec1bd"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="2029-07-01T08:40:36.610605"/>
+    <x v="1"/>
+    <s v="478059f2-154c-4d65-9597-63c8fbef294a"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="2027-08-01T08:40:36.610705"/>
+    <x v="0"/>
+    <s v="01ed84df-94be-4f40-b64c-ccc4e11c6fef"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{20402AD1-7602-4260-9116-55536A017A99}" name="Kontingenční tabulka1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Počet z Column1.validity" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="13">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="53" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ECD86E3-62CC-408A-91D6-316230188C2A}" name="Kontingenční tabulka1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:AH12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="17">
+        <item x="9"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="6"/>
+  </colFields>
+  <colItems count="33">
+    <i>
+      <x/>
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="4"/>
+    </i>
+    <i t="default">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x/>
+    </i>
+    <i t="default">
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Počet z Column1.validity" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="48">
+    <chartFormat chart="0" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="53" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="55" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="56" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="59" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="60" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="61" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="62" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="63" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="112" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="113" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="114" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="115" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="116" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="117" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="118" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="119" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="120" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="121" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="122" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="123" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="124" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="125" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="126" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="127" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="160" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="161" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="162" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="163" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="164" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="165" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="166" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="167" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="168" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="169" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="170" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="171" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="172" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="173" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="174" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="175" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A15B4F4-0082-425E-9C0A-074A4F7C52A1}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +5920,8 @@
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1339,9 +6470,885 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1FC16F-2F60-476D-A180-6780891CEFAA}">
+  <dimension ref="A3:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCF36FC-81BA-43DE-9C5C-48C7BBDFF299}">
+  <dimension ref="A1:AH12"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection sqref="A1:AH12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
